--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H2">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I2">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J2">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>299.8934484383378</v>
+        <v>81.37761025570222</v>
       </c>
       <c r="R2">
-        <v>2699.04103594504</v>
+        <v>732.3984923013199</v>
       </c>
       <c r="S2">
-        <v>0.02187210529729871</v>
+        <v>0.007512217748440423</v>
       </c>
       <c r="T2">
-        <v>0.02187210529729872</v>
+        <v>0.007512217748440423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H3">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I3">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J3">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>509.1161147295255</v>
+        <v>775.2937230576662</v>
       </c>
       <c r="R3">
-        <v>4582.045032565729</v>
+        <v>6977.643507518997</v>
       </c>
       <c r="S3">
-        <v>0.03713132556880579</v>
+        <v>0.07156975055310313</v>
       </c>
       <c r="T3">
-        <v>0.0371313255688058</v>
+        <v>0.07156975055310313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.21340333333333</v>
+        <v>21.64449733333333</v>
       </c>
       <c r="H4">
-        <v>42.64021</v>
+        <v>64.933492</v>
       </c>
       <c r="I4">
-        <v>0.07497543485230342</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="J4">
-        <v>0.07497543485230343</v>
+        <v>0.1098676276771345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>218.9958071609889</v>
+        <v>333.4918494144756</v>
       </c>
       <c r="R4">
-        <v>1970.9622644489</v>
+        <v>3001.42664473028</v>
       </c>
       <c r="S4">
-        <v>0.01597200398619892</v>
+        <v>0.03078565937559094</v>
       </c>
       <c r="T4">
-        <v>0.01597200398619892</v>
+        <v>0.03078565937559094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>29.428335</v>
       </c>
       <c r="H5">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I5">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J5">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>620.9184850366802</v>
+        <v>110.64279013845</v>
       </c>
       <c r="R5">
-        <v>5588.266365330122</v>
+        <v>995.78511124605</v>
       </c>
       <c r="S5">
-        <v>0.04528539905250334</v>
+        <v>0.0102137766051786</v>
       </c>
       <c r="T5">
-        <v>0.04528539905250335</v>
+        <v>0.0102137766051786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>29.428335</v>
       </c>
       <c r="H6">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I6">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J6">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>1054.106411166285</v>
       </c>
       <c r="R6">
-        <v>9486.957700496567</v>
+        <v>9486.957700496565</v>
       </c>
       <c r="S6">
-        <v>0.07687906001163333</v>
+        <v>0.09730780820211336</v>
       </c>
       <c r="T6">
-        <v>0.07687906001163336</v>
+        <v>0.09730780820211336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>29.428335</v>
       </c>
       <c r="H7">
-        <v>88.28500500000001</v>
+        <v>88.285005</v>
       </c>
       <c r="I7">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="J7">
-        <v>0.1552339127976336</v>
+        <v>0.1493784449296822</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>453.42285908505</v>
       </c>
       <c r="R7">
-        <v>4080.805731765451</v>
+        <v>4080.80573176545</v>
       </c>
       <c r="S7">
-        <v>0.0330694537334969</v>
+        <v>0.0418568601223902</v>
       </c>
       <c r="T7">
-        <v>0.03306945373349691</v>
+        <v>0.0418568601223902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>437.797195</v>
       </c>
       <c r="I8">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J8">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>3079.077484026965</v>
+        <v>548.6673888684389</v>
       </c>
       <c r="R8">
-        <v>27711.69735624268</v>
+        <v>4938.00649981595</v>
       </c>
       <c r="S8">
-        <v>0.2245661160651417</v>
+        <v>0.05064917590596288</v>
       </c>
       <c r="T8">
-        <v>0.2245661160651418</v>
+        <v>0.05064917590596286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>437.797195</v>
       </c>
       <c r="I9">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J9">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>5227.216445648004</v>
@@ -1004,10 +1004,10 @@
         <v>47044.94801083203</v>
       </c>
       <c r="S9">
-        <v>0.3812361660661371</v>
+        <v>0.4825404436742483</v>
       </c>
       <c r="T9">
-        <v>0.3812361660661371</v>
+        <v>0.4825404436742482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>437.797195</v>
       </c>
       <c r="I10">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="J10">
-        <v>0.7697906523500631</v>
+        <v>0.7407539273931834</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>2248.482127359172</v>
@@ -1066,10 +1066,10 @@
         <v>20236.33914623255</v>
       </c>
       <c r="S10">
-        <v>0.1639883702187843</v>
+        <v>0.2075643078129722</v>
       </c>
       <c r="T10">
-        <v>0.1639883702187843</v>
+        <v>0.2075643078129721</v>
       </c>
     </row>
   </sheetData>
